--- a/Code/Results/Cases/Case_2_167/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_167/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.73085029309904</v>
+        <v>12.59486203616575</v>
       </c>
       <c r="C2">
-        <v>6.438453538332123</v>
+        <v>8.791737470398171</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.435933258655</v>
+        <v>15.44322561161456</v>
       </c>
       <c r="F2">
-        <v>26.87923907047862</v>
+        <v>39.49423673964566</v>
       </c>
       <c r="G2">
-        <v>2.111829865289995</v>
+        <v>3.671879754973645</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.3726091011033</v>
+        <v>26.51250918074938</v>
       </c>
       <c r="J2">
-        <v>5.829780536428237</v>
+        <v>8.411503718384983</v>
       </c>
       <c r="K2">
-        <v>10.25401997016956</v>
+        <v>9.376781223471033</v>
       </c>
       <c r="L2">
-        <v>7.824706796884538</v>
+        <v>12.47453874763217</v>
       </c>
       <c r="M2">
-        <v>10.66306018831992</v>
+        <v>15.80215168760568</v>
       </c>
       <c r="N2">
-        <v>13.41439572108384</v>
+        <v>20.71432252729305</v>
       </c>
       <c r="O2">
-        <v>16.5145841184618</v>
+        <v>26.30825110385946</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.95333301662846</v>
+        <v>12.39988198576366</v>
       </c>
       <c r="C3">
-        <v>6.38326959212774</v>
+        <v>8.778431492385291</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.332066630970608</v>
+        <v>15.45705149422015</v>
       </c>
       <c r="F3">
-        <v>26.47317741197512</v>
+        <v>39.53619093940004</v>
       </c>
       <c r="G3">
-        <v>2.115926232640295</v>
+        <v>3.673453175666221</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.51054540121073</v>
+        <v>26.59887815746057</v>
       </c>
       <c r="J3">
-        <v>5.786103005486475</v>
+        <v>8.399164393675292</v>
       </c>
       <c r="K3">
-        <v>9.661672102528559</v>
+        <v>9.240595779168917</v>
       </c>
       <c r="L3">
-        <v>7.671961372673277</v>
+        <v>12.47319787936689</v>
       </c>
       <c r="M3">
-        <v>10.31221446119034</v>
+        <v>15.76839360776916</v>
       </c>
       <c r="N3">
-        <v>13.60114686226232</v>
+        <v>20.77152126345495</v>
       </c>
       <c r="O3">
-        <v>16.58885390057392</v>
+        <v>26.38904526324436</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.45221609418986</v>
+        <v>12.28070698149535</v>
       </c>
       <c r="C4">
-        <v>6.349279660743743</v>
+        <v>8.770189220713057</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.271449430402031</v>
+        <v>15.46744236290957</v>
       </c>
       <c r="F4">
-        <v>26.23887743200239</v>
+        <v>39.56976264717586</v>
       </c>
       <c r="G4">
-        <v>2.118524396915493</v>
+        <v>3.674471143303494</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>16.60453010135191</v>
+        <v>26.65586542160723</v>
       </c>
       <c r="J4">
-        <v>5.758996358059509</v>
+        <v>8.391452877780441</v>
       </c>
       <c r="K4">
-        <v>9.278577668773742</v>
+        <v>9.157366939139317</v>
       </c>
       <c r="L4">
-        <v>7.579561897055099</v>
+        <v>12.47393133733906</v>
       </c>
       <c r="M4">
-        <v>10.09417830158418</v>
+        <v>15.74969913536738</v>
       </c>
       <c r="N4">
-        <v>13.718555007264</v>
+        <v>20.80830598352559</v>
       </c>
       <c r="O4">
-        <v>16.64529987500871</v>
+        <v>26.4430081758367</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.24215859449426</v>
+        <v>12.23233889675608</v>
       </c>
       <c r="C5">
-        <v>6.335402190346162</v>
+        <v>8.766812664293564</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.247554740104217</v>
+        <v>15.47215578014812</v>
       </c>
       <c r="F5">
-        <v>26.14720972982492</v>
+        <v>39.58540761999171</v>
       </c>
       <c r="G5">
-        <v>2.119604406063102</v>
+        <v>3.674899058598757</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>16.64509367649408</v>
+        <v>26.68008336870131</v>
       </c>
       <c r="J5">
-        <v>5.747880204423825</v>
+        <v>8.388276644012826</v>
       </c>
       <c r="K5">
-        <v>9.117628693887502</v>
+        <v>9.123588141716125</v>
       </c>
       <c r="L5">
-        <v>7.542299212829784</v>
+        <v>12.47462308215333</v>
       </c>
       <c r="M5">
-        <v>10.00480117134788</v>
+        <v>15.7425976908972</v>
       </c>
       <c r="N5">
-        <v>13.76710654249668</v>
+        <v>20.82371579643054</v>
       </c>
       <c r="O5">
-        <v>16.67093481996995</v>
+        <v>26.46609313641599</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.20692948645085</v>
+        <v>12.22432105139157</v>
       </c>
       <c r="C6">
-        <v>6.333096278713662</v>
+        <v>8.766250929234069</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.2436361611426</v>
+        <v>15.47296739661648</v>
       </c>
       <c r="F6">
-        <v>26.13221933298016</v>
+        <v>39.58812407612128</v>
       </c>
       <c r="G6">
-        <v>2.11978503396069</v>
+        <v>3.674970905079555</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>16.6519639252267</v>
+        <v>26.68416485593196</v>
       </c>
       <c r="J6">
-        <v>5.746030223798186</v>
+        <v>8.387747202891788</v>
       </c>
       <c r="K6">
-        <v>9.090612696444179</v>
+        <v>9.117988670942031</v>
       </c>
       <c r="L6">
-        <v>7.536136606293514</v>
+        <v>12.47476171178868</v>
       </c>
       <c r="M6">
-        <v>9.989932474666015</v>
+        <v>15.74144986183828</v>
       </c>
       <c r="N6">
-        <v>13.775211665921</v>
+        <v>20.82629997069042</v>
       </c>
       <c r="O6">
-        <v>16.67534778787668</v>
+        <v>26.46999247612525</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.44940668901613</v>
+        <v>12.28005379670746</v>
       </c>
       <c r="C7">
-        <v>6.349092609926372</v>
+        <v>8.770143754649434</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.271123893076618</v>
+        <v>15.4675039889542</v>
       </c>
       <c r="F7">
-        <v>26.23762570098853</v>
+        <v>39.56996568821745</v>
       </c>
       <c r="G7">
-        <v>2.118538875830732</v>
+        <v>3.674476861284688</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>16.60506808173189</v>
+        <v>26.65618800346414</v>
       </c>
       <c r="J7">
-        <v>5.758846721681808</v>
+        <v>8.391410178222644</v>
       </c>
       <c r="K7">
-        <v>9.276426566680271</v>
+        <v>9.156910776755582</v>
       </c>
       <c r="L7">
-        <v>7.579057721371093</v>
+        <v>12.47393907403785</v>
       </c>
       <c r="M7">
-        <v>10.09297487672838</v>
+        <v>15.74960126373198</v>
       </c>
       <c r="N7">
-        <v>13.71920690626527</v>
+        <v>20.80851210454794</v>
       </c>
       <c r="O7">
-        <v>16.64563505953522</v>
+        <v>26.44331507617258</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.46774537215304</v>
+        <v>12.52755601140119</v>
       </c>
       <c r="C8">
-        <v>6.419448517502671</v>
+        <v>8.787164840463999</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.399473267992304</v>
+        <v>15.44759860365222</v>
       </c>
       <c r="F8">
-        <v>26.73613446789991</v>
+        <v>39.50708136656692</v>
       </c>
       <c r="G8">
-        <v>2.113225298265007</v>
+        <v>3.672411526241834</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.4181965039276</v>
+        <v>26.54146825074519</v>
       </c>
       <c r="J8">
-        <v>5.814781929602066</v>
+        <v>8.407277311577465</v>
       </c>
       <c r="K8">
-        <v>10.05382338101603</v>
+        <v>9.329767387541969</v>
       </c>
       <c r="L8">
-        <v>7.771777603418673</v>
+        <v>12.47375418090133</v>
       </c>
       <c r="M8">
-        <v>10.54270747885841</v>
+        <v>15.79009330075104</v>
       </c>
       <c r="N8">
-        <v>13.47822896814753</v>
+        <v>20.73369991594145</v>
       </c>
       <c r="O8">
-        <v>16.53788439311728</v>
+        <v>26.33520478827657</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.3687660256497</v>
+        <v>13.0146075300926</v>
       </c>
       <c r="C9">
-        <v>6.556564921800553</v>
+        <v>8.819951237460836</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.675559104496381</v>
+        <v>15.42361438263897</v>
       </c>
       <c r="F9">
-        <v>27.83094105896064</v>
+        <v>39.44572930583825</v>
       </c>
       <c r="G9">
-        <v>2.103446230279171</v>
+        <v>3.668771267560379</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.12889530353599</v>
+        <v>26.34788088946775</v>
       </c>
       <c r="J9">
-        <v>5.922071973554313</v>
+        <v>8.437310465454249</v>
       </c>
       <c r="K9">
-        <v>11.42328896177556</v>
+        <v>9.670098411384476</v>
       </c>
       <c r="L9">
-        <v>8.158869907179195</v>
+        <v>12.48567891318898</v>
       </c>
       <c r="M9">
-        <v>11.39861647178492</v>
+        <v>15.8853770148377</v>
       </c>
       <c r="N9">
-        <v>13.02660967840634</v>
+        <v>20.60014465494781</v>
       </c>
       <c r="O9">
-        <v>16.41694747151224</v>
+        <v>26.15777550560068</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.66521221527732</v>
+        <v>13.37004796302259</v>
       </c>
       <c r="C10">
-        <v>6.656814825241822</v>
+        <v>8.843656027187603</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.892309602294528</v>
+        <v>15.41511295586941</v>
       </c>
       <c r="F10">
-        <v>28.70359085001903</v>
+        <v>39.43837204111758</v>
       </c>
       <c r="G10">
-        <v>2.096626568529703</v>
+        <v>3.666344115563727</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.96839072377285</v>
+        <v>26.22476116293986</v>
       </c>
       <c r="J10">
-        <v>5.999293389539613</v>
+        <v>8.458703654075697</v>
       </c>
       <c r="K10">
-        <v>12.33414668404198</v>
+        <v>9.918685202119315</v>
       </c>
       <c r="L10">
-        <v>8.446467418649041</v>
+        <v>12.50183839970724</v>
       </c>
       <c r="M10">
-        <v>12.00533727841479</v>
+        <v>15.96470434508189</v>
       </c>
       <c r="N10">
-        <v>12.70636360730855</v>
+        <v>20.50995984663399</v>
       </c>
       <c r="O10">
-        <v>16.38924866379601</v>
+        <v>26.04852219944356</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.22318692134499</v>
+        <v>13.5305273575522</v>
       </c>
       <c r="C11">
-        <v>6.702330493828709</v>
+        <v>8.854351895055736</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.993713444557098</v>
+        <v>15.41321240795392</v>
       </c>
       <c r="F11">
-        <v>29.11462338458096</v>
+        <v>39.44318939214641</v>
       </c>
       <c r="G11">
-        <v>2.093597446545621</v>
+        <v>3.665293115917471</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.90784634195942</v>
+        <v>26.17289622456474</v>
       </c>
       <c r="J11">
-        <v>6.034045403443062</v>
+        <v>8.468287351517096</v>
       </c>
       <c r="K11">
-        <v>12.72783014062542</v>
+        <v>10.03099005420769</v>
       </c>
       <c r="L11">
-        <v>8.577522016272161</v>
+        <v>12.51077413538855</v>
       </c>
       <c r="M11">
-        <v>12.27545149916388</v>
+        <v>16.002733726218</v>
       </c>
       <c r="N11">
-        <v>12.56290495068651</v>
+        <v>20.47063928914281</v>
       </c>
       <c r="O11">
-        <v>16.39126790879236</v>
+        <v>26.00340787282063</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.42995400413325</v>
+        <v>13.59106660909263</v>
       </c>
       <c r="C12">
-        <v>6.719555144315015</v>
+        <v>8.858389095066963</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.03249599463803</v>
+        <v>15.41277425668362</v>
       </c>
       <c r="F12">
-        <v>29.27222172637101</v>
+        <v>39.44618413338918</v>
       </c>
       <c r="G12">
-        <v>2.092460408451288</v>
+        <v>3.664902728518645</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.88681643372703</v>
+        <v>26.15385185595088</v>
       </c>
       <c r="J12">
-        <v>6.047148410027154</v>
+        <v>8.471894871104483</v>
       </c>
       <c r="K12">
-        <v>12.87394297151151</v>
+        <v>10.07336747104397</v>
       </c>
       <c r="L12">
-        <v>8.627144323484842</v>
+        <v>12.51438363072038</v>
       </c>
       <c r="M12">
-        <v>12.37681353483015</v>
+        <v>16.01740630275792</v>
       </c>
       <c r="N12">
-        <v>12.50887643755482</v>
+        <v>20.45599354680369</v>
       </c>
       <c r="O12">
-        <v>16.39424727510717</v>
+        <v>25.98698409791428</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.38562357628885</v>
+        <v>13.57803953859437</v>
       </c>
       <c r="C13">
-        <v>6.715845971606392</v>
+        <v>8.857520202170763</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.02412675707714</v>
+        <v>15.41285611989617</v>
       </c>
       <c r="F13">
-        <v>29.23819456098945</v>
+        <v>39.44548716665766</v>
       </c>
       <c r="G13">
-        <v>2.092704852320337</v>
+        <v>3.664986467835449</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.89125952678839</v>
+        <v>26.15792690452897</v>
       </c>
       <c r="J13">
-        <v>6.044329012906031</v>
+        <v>8.471118893724645</v>
       </c>
       <c r="K13">
-        <v>12.84260674821457</v>
+        <v>10.0642479979417</v>
       </c>
       <c r="L13">
-        <v>8.616458075169129</v>
+        <v>12.51359625772584</v>
       </c>
       <c r="M13">
-        <v>12.35502564700652</v>
+        <v>16.01423434415453</v>
       </c>
       <c r="N13">
-        <v>12.52049966039371</v>
+        <v>20.45913693003676</v>
       </c>
       <c r="O13">
-        <v>16.39350531048335</v>
+        <v>25.99049188626496</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.24028821776605</v>
+        <v>13.53551289947431</v>
       </c>
       <c r="C14">
-        <v>6.7037477883276</v>
+        <v>8.854684303225735</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.996896544403461</v>
+        <v>15.4131707260355</v>
       </c>
       <c r="F14">
-        <v>29.12755044354527</v>
+        <v>39.44341233503155</v>
       </c>
       <c r="G14">
-        <v>2.093503703777378</v>
+        <v>3.665260846332249</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.90607756862426</v>
+        <v>26.17131749285855</v>
       </c>
       <c r="J14">
-        <v>6.03512454984651</v>
+        <v>8.46858457939762</v>
       </c>
       <c r="K14">
-        <v>12.7399103330307</v>
+        <v>10.03447968883079</v>
       </c>
       <c r="L14">
-        <v>8.581604784220161</v>
+        <v>12.51106657963794</v>
       </c>
       <c r="M14">
-        <v>12.28380954931963</v>
+        <v>16.00393544843061</v>
       </c>
       <c r="N14">
-        <v>12.55845419593352</v>
+        <v>20.46942948909456</v>
       </c>
       <c r="O14">
-        <v>16.39146798793645</v>
+        <v>26.0020434471848</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.15067806486506</v>
+        <v>13.50943240882963</v>
       </c>
       <c r="C15">
-        <v>6.696335907577152</v>
+        <v>8.852945513159755</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.980266553306768</v>
+        <v>15.41340005742521</v>
       </c>
       <c r="F15">
-        <v>29.06002942720874</v>
+        <v>39.44229376032327</v>
       </c>
       <c r="G15">
-        <v>2.0939943136271</v>
+        <v>3.665429900208982</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.91540425184593</v>
+        <v>26.17959720095266</v>
       </c>
       <c r="J15">
-        <v>6.029479070702371</v>
+        <v>8.467029413974862</v>
       </c>
       <c r="K15">
-        <v>12.67661974484529</v>
+        <v>10.01622510104998</v>
       </c>
       <c r="L15">
-        <v>8.560254384855506</v>
+        <v>12.5095464089041</v>
       </c>
       <c r="M15">
-        <v>12.24006512152577</v>
+        <v>15.99766222329599</v>
       </c>
       <c r="N15">
-        <v>12.58174029538211</v>
+        <v>20.47576573601574</v>
       </c>
       <c r="O15">
-        <v>16.3905118513594</v>
+        <v>26.00920508725009</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.62811146852177</v>
+        <v>13.3595309831129</v>
       </c>
       <c r="C16">
-        <v>6.653838609851201</v>
+        <v>8.842955222336316</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.885737322122562</v>
+        <v>15.41527663086921</v>
       </c>
       <c r="F16">
-        <v>28.67700562617396</v>
+        <v>39.43822121917125</v>
       </c>
       <c r="G16">
-        <v>2.096825959307631</v>
+        <v>3.666413866784889</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.97260712225788</v>
+        <v>26.22823402489318</v>
       </c>
       <c r="J16">
-        <v>5.997014457462861</v>
+        <v>8.458074328781565</v>
       </c>
       <c r="K16">
-        <v>12.30800297777332</v>
+        <v>9.911326866813106</v>
       </c>
       <c r="L16">
-        <v>8.437903950641241</v>
+        <v>12.50128613561492</v>
       </c>
       <c r="M16">
-        <v>11.98755933026616</v>
+        <v>15.96225747997507</v>
       </c>
       <c r="N16">
-        <v>12.71578172016192</v>
+        <v>20.51256375386275</v>
       </c>
       <c r="O16">
-        <v>16.38942046529579</v>
+        <v>26.05156285566357</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.29942445158955</v>
+        <v>13.26721992728198</v>
       </c>
       <c r="C17">
-        <v>6.627746163975237</v>
+        <v>8.836803720664212</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.82845044984291</v>
+        <v>15.41693070994402</v>
       </c>
       <c r="F17">
-        <v>28.44558246006231</v>
+        <v>39.43781164694933</v>
       </c>
       <c r="G17">
-        <v>2.098581478443682</v>
+        <v>3.667031079156156</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.01096529354541</v>
+        <v>26.25913223502824</v>
       </c>
       <c r="J17">
-        <v>5.977000125691374</v>
+        <v>8.452542503548516</v>
       </c>
       <c r="K17">
-        <v>12.07657675552096</v>
+        <v>9.846748303079625</v>
       </c>
       <c r="L17">
-        <v>8.362876033044799</v>
+        <v>12.49662311577221</v>
       </c>
       <c r="M17">
-        <v>11.83108879311162</v>
+        <v>15.94103006142876</v>
       </c>
       <c r="N17">
-        <v>12.79856482325827</v>
+        <v>20.5355740617276</v>
       </c>
       <c r="O17">
-        <v>16.39257491712977</v>
+        <v>26.07872291327914</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.107377865254</v>
+        <v>13.21401419157128</v>
       </c>
       <c r="C18">
-        <v>6.612730018569509</v>
+        <v>8.833257328405473</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.795765594039734</v>
+        <v>15.4180672984233</v>
       </c>
       <c r="F18">
-        <v>28.3138017769577</v>
+        <v>39.43834478067338</v>
       </c>
       <c r="G18">
-        <v>2.099598125680471</v>
+        <v>3.667391085787498</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.03419510488115</v>
+        <v>26.27729401023025</v>
       </c>
       <c r="J18">
-        <v>5.965453141883983</v>
+        <v>8.449346816348816</v>
       </c>
       <c r="K18">
-        <v>11.94152020466986</v>
+        <v>9.809533336839426</v>
       </c>
       <c r="L18">
-        <v>8.319745242290619</v>
+        <v>12.49409036692504</v>
       </c>
       <c r="M18">
-        <v>11.74054102018769</v>
+        <v>15.92900397588796</v>
       </c>
       <c r="N18">
-        <v>12.8463901838324</v>
+        <v>20.54896952491568</v>
       </c>
       <c r="O18">
-        <v>16.39575851594066</v>
+        <v>26.0947762371737</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.04183853066959</v>
+        <v>13.19598236176557</v>
       </c>
       <c r="C19">
-        <v>6.607644318023567</v>
+        <v>8.832055185853628</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.784745190081839</v>
+        <v>15.41848397453173</v>
       </c>
       <c r="F19">
-        <v>28.26941336015856</v>
+        <v>39.43865741138006</v>
       </c>
       <c r="G19">
-        <v>2.099943548063238</v>
+        <v>3.667513838111108</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.04225771065077</v>
+        <v>26.28351024765969</v>
       </c>
       <c r="J19">
-        <v>5.961537557201636</v>
+        <v>8.448262428909207</v>
       </c>
       <c r="K19">
-        <v>11.8954580094582</v>
+        <v>9.796921961294135</v>
       </c>
       <c r="L19">
-        <v>8.305147082631018</v>
+        <v>12.49325852702969</v>
       </c>
       <c r="M19">
-        <v>11.7097911760854</v>
+        <v>15.92496387333034</v>
       </c>
       <c r="N19">
-        <v>12.86261991324793</v>
+        <v>20.5535326048087</v>
       </c>
       <c r="O19">
-        <v>16.39706819294693</v>
+        <v>26.10028572042313</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.33472334396278</v>
+        <v>13.27705848654483</v>
       </c>
       <c r="C20">
-        <v>6.630524615458498</v>
+        <v>8.83745941197267</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.834521449052652</v>
+        <v>15.41673547126247</v>
       </c>
       <c r="F20">
-        <v>28.47008095443122</v>
+        <v>39.43777571107533</v>
       </c>
       <c r="G20">
-        <v>2.098393887861066</v>
+        <v>3.666964858376667</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.00676046405757</v>
+        <v>26.25580271014821</v>
       </c>
       <c r="J20">
-        <v>5.97913435548331</v>
+        <v>8.453132819488033</v>
       </c>
       <c r="K20">
-        <v>12.1014138825161</v>
+        <v>9.853630438327347</v>
       </c>
       <c r="L20">
-        <v>8.370860753553892</v>
+        <v>12.49710406571852</v>
       </c>
       <c r="M20">
-        <v>11.84780287608896</v>
+        <v>15.9432708338649</v>
       </c>
       <c r="N20">
-        <v>12.78973077900872</v>
+        <v>20.533107967403</v>
       </c>
       <c r="O20">
-        <v>16.39209659889348</v>
+        <v>26.07578700738561</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.28309920305683</v>
+        <v>13.54801070728404</v>
       </c>
       <c r="C21">
-        <v>6.707301604866828</v>
+        <v>8.855517634854557</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.00488447934774</v>
+        <v>15.41307068815615</v>
       </c>
       <c r="F21">
-        <v>29.15999697739916</v>
+        <v>39.4439900273677</v>
       </c>
       <c r="G21">
-        <v>2.09326879377734</v>
+        <v>3.66518004864767</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.901672815705</v>
+        <v>26.16736818354865</v>
       </c>
       <c r="J21">
-        <v>6.037829687277055</v>
+        <v>8.469329558180352</v>
       </c>
       <c r="K21">
-        <v>12.77015519815374</v>
+        <v>10.0432277298514</v>
       </c>
       <c r="L21">
-        <v>8.591842469233889</v>
+        <v>12.51180349905957</v>
       </c>
       <c r="M21">
-        <v>12.30475309921226</v>
+        <v>16.00695317357903</v>
       </c>
       <c r="N21">
-        <v>12.54729818457533</v>
+        <v>20.46639969870872</v>
       </c>
       <c r="O21">
-        <v>16.39200538933858</v>
+        <v>25.99863255541802</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.87655917664896</v>
+        <v>13.72372374881666</v>
       </c>
       <c r="C22">
-        <v>6.757416025693526</v>
+        <v>8.867243175070623</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.1184504614622</v>
+        <v>15.4123159449791</v>
       </c>
       <c r="F22">
-        <v>29.62222572415984</v>
+        <v>39.45487196281901</v>
       </c>
       <c r="G22">
-        <v>2.08997742897742</v>
+        <v>3.664057874110104</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.844100565937</v>
+        <v>26.11304365848839</v>
       </c>
       <c r="J22">
-        <v>6.075858039341139</v>
+        <v>8.479788905218671</v>
       </c>
       <c r="K22">
-        <v>13.1899312994743</v>
+        <v>10.16624961003917</v>
       </c>
       <c r="L22">
-        <v>8.736220781210243</v>
+        <v>12.52272504449871</v>
       </c>
       <c r="M22">
-        <v>12.59797981210565</v>
+        <v>16.05015300787657</v>
       </c>
       <c r="N22">
-        <v>12.39056890325011</v>
+        <v>20.424224297054</v>
       </c>
       <c r="O22">
-        <v>16.40490791778455</v>
+        <v>25.95205516296095</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.56221515043774</v>
+        <v>13.63008579984555</v>
       </c>
       <c r="C23">
-        <v>6.730674167282808</v>
+        <v>8.860992205193114</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.05764125278943</v>
+        <v>15.41256911341194</v>
       </c>
       <c r="F23">
-        <v>29.37451273185954</v>
+        <v>39.44844133293829</v>
       </c>
       <c r="G23">
-        <v>2.09172894051068</v>
+        <v>3.664652757911139</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.87377589854425</v>
+        <v>26.14171993146451</v>
       </c>
       <c r="J23">
-        <v>6.055592887537776</v>
+        <v>8.474218202570903</v>
       </c>
       <c r="K23">
-        <v>12.96746720645879</v>
+        <v>10.10068423710429</v>
       </c>
       <c r="L23">
-        <v>8.659179309333952</v>
+        <v>12.51677646687907</v>
       </c>
       <c r="M23">
-        <v>12.44199786957502</v>
+        <v>16.02695452354159</v>
       </c>
       <c r="N23">
-        <v>12.47406950350456</v>
+        <v>20.44660431288719</v>
       </c>
       <c r="O23">
-        <v>16.39679807995967</v>
+        <v>25.97656214286222</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.31877431174636</v>
+        <v>13.27261088969356</v>
       </c>
       <c r="C24">
-        <v>6.629268525156718</v>
+        <v>8.837163004466902</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.831775969695967</v>
+        <v>15.41682316034603</v>
       </c>
       <c r="F24">
-        <v>28.45900123138277</v>
+        <v>39.4377895633061</v>
       </c>
       <c r="G24">
-        <v>2.098478674551794</v>
+        <v>3.666994780705998</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.00865780858646</v>
+        <v>26.25730674865558</v>
       </c>
       <c r="J24">
-        <v>5.978169596068169</v>
+        <v>8.452865985493311</v>
       </c>
       <c r="K24">
-        <v>12.09019126768464</v>
+        <v>9.850519295821996</v>
       </c>
       <c r="L24">
-        <v>8.367250846822632</v>
+        <v>12.49688616682657</v>
       </c>
       <c r="M24">
-        <v>11.84024827328205</v>
+        <v>15.94225722611145</v>
       </c>
       <c r="N24">
-        <v>12.79372392524067</v>
+        <v>20.53422236982654</v>
       </c>
       <c r="O24">
-        <v>16.39230858763125</v>
+        <v>26.07711296413425</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.8628595169542</v>
+        <v>12.88302464479912</v>
       </c>
       <c r="C25">
-        <v>6.519560809608214</v>
+        <v>8.811147320907047</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.598354129507177</v>
+        <v>15.42849689910988</v>
       </c>
       <c r="F25">
-        <v>27.52251697501955</v>
+        <v>39.45569615393439</v>
       </c>
       <c r="G25">
-        <v>2.106025698525904</v>
+        <v>3.669712436976762</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.19839917742868</v>
+        <v>26.39689429396489</v>
       </c>
       <c r="J25">
-        <v>5.893318703334699</v>
+        <v>8.429302823578499</v>
       </c>
       <c r="K25">
-        <v>11.06952254549432</v>
+        <v>9.578122889949082</v>
       </c>
       <c r="L25">
-        <v>8.053421028615199</v>
+        <v>12.48114653969677</v>
       </c>
       <c r="M25">
-        <v>11.17054472241805</v>
+        <v>15.85793588928405</v>
       </c>
       <c r="N25">
-        <v>13.14666411991142</v>
+        <v>20.63487517904245</v>
       </c>
       <c r="O25">
-        <v>16.43937182871517</v>
+        <v>26.20207055731147</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_167/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_167/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.59486203616575</v>
+        <v>12.73085029309905</v>
       </c>
       <c r="C2">
-        <v>8.791737470398171</v>
+        <v>6.438453538332251</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.44322561161456</v>
+        <v>9.435933258654995</v>
       </c>
       <c r="F2">
-        <v>39.49423673964566</v>
+        <v>26.87923907047862</v>
       </c>
       <c r="G2">
-        <v>3.671879754973645</v>
+        <v>2.111829865289726</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.51250918074938</v>
+        <v>16.3726091011034</v>
       </c>
       <c r="J2">
-        <v>8.411503718384983</v>
+        <v>5.829780536428367</v>
       </c>
       <c r="K2">
-        <v>9.376781223471033</v>
+        <v>10.25401997016958</v>
       </c>
       <c r="L2">
-        <v>12.47453874763217</v>
+        <v>7.824706796884477</v>
       </c>
       <c r="M2">
-        <v>15.80215168760568</v>
+        <v>10.66306018831992</v>
       </c>
       <c r="N2">
-        <v>20.71432252729305</v>
+        <v>13.41439572108387</v>
       </c>
       <c r="O2">
-        <v>26.30825110385946</v>
+        <v>16.51458411846187</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.39988198576366</v>
+        <v>11.95333301662848</v>
       </c>
       <c r="C3">
-        <v>8.778431492385291</v>
+        <v>6.383269592127612</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.45705149422015</v>
+        <v>9.332066630970408</v>
       </c>
       <c r="F3">
-        <v>39.53619093940004</v>
+        <v>26.47317741197507</v>
       </c>
       <c r="G3">
-        <v>3.673453175666221</v>
+        <v>2.115926232640428</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>26.59887815746057</v>
+        <v>16.5105454012108</v>
       </c>
       <c r="J3">
-        <v>8.399164393675292</v>
+        <v>5.786103005486345</v>
       </c>
       <c r="K3">
-        <v>9.240595779168917</v>
+        <v>9.661672102528538</v>
       </c>
       <c r="L3">
-        <v>12.47319787936689</v>
+        <v>7.671961372673108</v>
       </c>
       <c r="M3">
-        <v>15.76839360776916</v>
+        <v>10.31221446119029</v>
       </c>
       <c r="N3">
-        <v>20.77152126345495</v>
+        <v>13.60114686226232</v>
       </c>
       <c r="O3">
-        <v>26.38904526324436</v>
+        <v>16.58885390057398</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.28070698149535</v>
+        <v>11.45221609418983</v>
       </c>
       <c r="C4">
-        <v>8.770189220713057</v>
+        <v>6.349279660743615</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.46744236290957</v>
+        <v>9.271449430401994</v>
       </c>
       <c r="F4">
-        <v>39.56976264717586</v>
+        <v>26.23887743200227</v>
       </c>
       <c r="G4">
-        <v>3.674471143303494</v>
+        <v>2.118524396915358</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.65586542160723</v>
+        <v>16.60453010135176</v>
       </c>
       <c r="J4">
-        <v>8.391452877780441</v>
+        <v>5.758996358059546</v>
       </c>
       <c r="K4">
-        <v>9.157366939139317</v>
+        <v>9.278577668773753</v>
       </c>
       <c r="L4">
-        <v>12.47393133733906</v>
+        <v>7.579561897055105</v>
       </c>
       <c r="M4">
-        <v>15.74969913536738</v>
+        <v>10.09417830158415</v>
       </c>
       <c r="N4">
-        <v>20.80830598352559</v>
+        <v>13.71855500726393</v>
       </c>
       <c r="O4">
-        <v>26.4430081758367</v>
+        <v>16.64529987500859</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.23233889675608</v>
+        <v>11.24215859449429</v>
       </c>
       <c r="C5">
-        <v>8.766812664293564</v>
+        <v>6.335402190346021</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.47215578014812</v>
+        <v>9.247554740104318</v>
       </c>
       <c r="F5">
-        <v>39.58540761999171</v>
+        <v>26.14720972982495</v>
       </c>
       <c r="G5">
-        <v>3.674899058598757</v>
+        <v>2.119604406062699</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.68008336870131</v>
+        <v>16.64509367649398</v>
       </c>
       <c r="J5">
-        <v>8.388276644012826</v>
+        <v>5.747880204423825</v>
       </c>
       <c r="K5">
-        <v>9.123588141716125</v>
+        <v>9.117628693887484</v>
       </c>
       <c r="L5">
-        <v>12.47462308215333</v>
+        <v>7.542299212829922</v>
       </c>
       <c r="M5">
-        <v>15.7425976908972</v>
+        <v>10.00480117134796</v>
       </c>
       <c r="N5">
-        <v>20.82371579643054</v>
+        <v>13.76710654249661</v>
       </c>
       <c r="O5">
-        <v>26.46609313641599</v>
+        <v>16.67093481996988</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.22432105139157</v>
+        <v>11.20692948645088</v>
       </c>
       <c r="C6">
-        <v>8.766250929234069</v>
+        <v>6.333096278713533</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.47296739661648</v>
+        <v>9.243636161142504</v>
       </c>
       <c r="F6">
-        <v>39.58812407612128</v>
+        <v>26.13221933298023</v>
       </c>
       <c r="G6">
-        <v>3.674970905079555</v>
+        <v>2.119785033960823</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.68416485593196</v>
+        <v>16.65196392522682</v>
       </c>
       <c r="J6">
-        <v>8.387747202891788</v>
+        <v>5.746030223798252</v>
       </c>
       <c r="K6">
-        <v>9.117988670942031</v>
+        <v>9.090612696444126</v>
       </c>
       <c r="L6">
-        <v>12.47476171178868</v>
+        <v>7.536136606293479</v>
       </c>
       <c r="M6">
-        <v>15.74144986183828</v>
+        <v>9.989932474666025</v>
       </c>
       <c r="N6">
-        <v>20.82629997069042</v>
+        <v>13.77521166592106</v>
       </c>
       <c r="O6">
-        <v>26.46999247612525</v>
+        <v>16.67534778787688</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.28005379670746</v>
+        <v>11.44940668901613</v>
       </c>
       <c r="C7">
-        <v>8.770143754649434</v>
+        <v>6.349092609926377</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.4675039889542</v>
+        <v>9.271123893076672</v>
       </c>
       <c r="F7">
-        <v>39.56996568821745</v>
+        <v>26.23762570098845</v>
       </c>
       <c r="G7">
-        <v>3.674476861284688</v>
+        <v>2.118538875830732</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.65618800346414</v>
+        <v>16.6050680817318</v>
       </c>
       <c r="J7">
-        <v>8.391410178222644</v>
+        <v>5.758846721681805</v>
       </c>
       <c r="K7">
-        <v>9.156910776755582</v>
+        <v>9.276426566680293</v>
       </c>
       <c r="L7">
-        <v>12.47393907403785</v>
+        <v>7.579057721371134</v>
       </c>
       <c r="M7">
-        <v>15.74960126373198</v>
+        <v>10.09297487672838</v>
       </c>
       <c r="N7">
-        <v>20.80851210454794</v>
+        <v>13.71920690626524</v>
       </c>
       <c r="O7">
-        <v>26.44331507617258</v>
+        <v>16.64563505953511</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.52755601140119</v>
+        <v>12.46774537215305</v>
       </c>
       <c r="C8">
-        <v>8.787164840463999</v>
+        <v>6.419448517502932</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.44759860365222</v>
+        <v>9.399473267992398</v>
       </c>
       <c r="F8">
-        <v>39.50708136656692</v>
+        <v>26.73613446789997</v>
       </c>
       <c r="G8">
-        <v>3.672411526241834</v>
+        <v>2.113225298265007</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.54146825074519</v>
+        <v>16.4181965039277</v>
       </c>
       <c r="J8">
-        <v>8.407277311577465</v>
+        <v>5.814781929602129</v>
       </c>
       <c r="K8">
-        <v>9.329767387541969</v>
+        <v>10.05382338101603</v>
       </c>
       <c r="L8">
-        <v>12.47375418090133</v>
+        <v>7.771777603418655</v>
       </c>
       <c r="M8">
-        <v>15.79009330075104</v>
+        <v>10.54270747885843</v>
       </c>
       <c r="N8">
-        <v>20.73369991594145</v>
+        <v>13.47822896814753</v>
       </c>
       <c r="O8">
-        <v>26.33520478827657</v>
+        <v>16.5378843931173</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.0146075300926</v>
+        <v>14.36876602564969</v>
       </c>
       <c r="C9">
-        <v>8.819951237460836</v>
+        <v>6.556564921800542</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.42361438263897</v>
+        <v>9.675559104496275</v>
       </c>
       <c r="F9">
-        <v>39.44572930583825</v>
+        <v>27.83094105896067</v>
       </c>
       <c r="G9">
-        <v>3.668771267560379</v>
+        <v>2.103446230279036</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>26.34788088946775</v>
+        <v>16.12889530353602</v>
       </c>
       <c r="J9">
-        <v>8.437310465454249</v>
+        <v>5.922071973554247</v>
       </c>
       <c r="K9">
-        <v>9.670098411384476</v>
+        <v>11.42328896177554</v>
       </c>
       <c r="L9">
-        <v>12.48567891318898</v>
+        <v>8.158869907179117</v>
       </c>
       <c r="M9">
-        <v>15.8853770148377</v>
+        <v>11.39861647178489</v>
       </c>
       <c r="N9">
-        <v>20.60014465494781</v>
+        <v>13.0266096784063</v>
       </c>
       <c r="O9">
-        <v>26.15777550560068</v>
+        <v>16.41694747151227</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.37004796302259</v>
+        <v>15.66521221527744</v>
       </c>
       <c r="C10">
-        <v>8.843656027187603</v>
+        <v>6.656814825241689</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.41511295586941</v>
+        <v>9.892309602294457</v>
       </c>
       <c r="F10">
-        <v>39.43837204111758</v>
+        <v>28.70359085001886</v>
       </c>
       <c r="G10">
-        <v>3.666344115563727</v>
+        <v>2.096626568529568</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>26.22476116293986</v>
+        <v>15.96839072377259</v>
       </c>
       <c r="J10">
-        <v>8.458703654075697</v>
+        <v>5.999293389539546</v>
       </c>
       <c r="K10">
-        <v>9.918685202119315</v>
+        <v>12.33414668404208</v>
       </c>
       <c r="L10">
-        <v>12.50183839970724</v>
+        <v>8.446467418649043</v>
       </c>
       <c r="M10">
-        <v>15.96470434508189</v>
+        <v>12.00533727841475</v>
       </c>
       <c r="N10">
-        <v>20.50995984663399</v>
+        <v>12.70636360730841</v>
       </c>
       <c r="O10">
-        <v>26.04852219944356</v>
+        <v>16.38924866379578</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.5305273575522</v>
+        <v>16.22318692134499</v>
       </c>
       <c r="C11">
-        <v>8.854351895055736</v>
+        <v>6.702330493828587</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.41321240795392</v>
+        <v>9.99371344455715</v>
       </c>
       <c r="F11">
-        <v>39.44318939214641</v>
+        <v>29.11462338458107</v>
       </c>
       <c r="G11">
-        <v>3.665293115917471</v>
+        <v>2.093597446545755</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>26.17289622456474</v>
+        <v>15.90784634195954</v>
       </c>
       <c r="J11">
-        <v>8.468287351517096</v>
+        <v>6.034045403443088</v>
       </c>
       <c r="K11">
-        <v>10.03099005420769</v>
+        <v>12.72783014062538</v>
       </c>
       <c r="L11">
-        <v>12.51077413538855</v>
+        <v>8.577522016272196</v>
       </c>
       <c r="M11">
-        <v>16.002733726218</v>
+        <v>12.27545149916391</v>
       </c>
       <c r="N11">
-        <v>20.47063928914281</v>
+        <v>12.56290495068661</v>
       </c>
       <c r="O11">
-        <v>26.00340787282063</v>
+        <v>16.39126790879247</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.59106660909263</v>
+        <v>16.42995400413325</v>
       </c>
       <c r="C12">
-        <v>8.858389095066963</v>
+        <v>6.719555144314994</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.41277425668362</v>
+        <v>10.03249599463804</v>
       </c>
       <c r="F12">
-        <v>39.44618413338918</v>
+        <v>29.27222172637095</v>
       </c>
       <c r="G12">
-        <v>3.664902728518645</v>
+        <v>2.092460408451289</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>26.15385185595088</v>
+        <v>15.88681643372696</v>
       </c>
       <c r="J12">
-        <v>8.471894871104483</v>
+        <v>6.047148410027088</v>
       </c>
       <c r="K12">
-        <v>10.07336747104397</v>
+        <v>12.8739429715115</v>
       </c>
       <c r="L12">
-        <v>12.51438363072038</v>
+        <v>8.627144323484794</v>
       </c>
       <c r="M12">
-        <v>16.01740630275792</v>
+        <v>12.37681353483014</v>
       </c>
       <c r="N12">
-        <v>20.45599354680369</v>
+        <v>12.50887643755472</v>
       </c>
       <c r="O12">
-        <v>25.98698409791428</v>
+        <v>16.39424727510711</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.57803953859437</v>
+        <v>16.38562357628888</v>
       </c>
       <c r="C13">
-        <v>8.857520202170763</v>
+        <v>6.715845971606392</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.41285611989617</v>
+        <v>10.02412675707698</v>
       </c>
       <c r="F13">
-        <v>39.44548716665766</v>
+        <v>29.2381945609894</v>
       </c>
       <c r="G13">
-        <v>3.664986467835449</v>
+        <v>2.092704852320473</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>26.15792690452897</v>
+        <v>15.8912595267884</v>
       </c>
       <c r="J13">
-        <v>8.471118893724645</v>
+        <v>6.044329012905999</v>
       </c>
       <c r="K13">
-        <v>10.0642479979417</v>
+        <v>12.84260674821464</v>
       </c>
       <c r="L13">
-        <v>12.51359625772584</v>
+        <v>8.616458075169048</v>
       </c>
       <c r="M13">
-        <v>16.01423434415453</v>
+        <v>12.35502564700645</v>
       </c>
       <c r="N13">
-        <v>20.45913693003676</v>
+        <v>12.52049966039381</v>
       </c>
       <c r="O13">
-        <v>25.99049188626496</v>
+        <v>16.39350531048336</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.53551289947431</v>
+        <v>16.24028821776606</v>
       </c>
       <c r="C14">
-        <v>8.854684303225735</v>
+        <v>6.703747788327322</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.4131707260355</v>
+        <v>9.996896544403484</v>
       </c>
       <c r="F14">
-        <v>39.44341233503155</v>
+        <v>29.12755044354534</v>
       </c>
       <c r="G14">
-        <v>3.665260846332249</v>
+        <v>2.093503703777244</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>26.17131749285855</v>
+        <v>15.90607756862426</v>
       </c>
       <c r="J14">
-        <v>8.46858457939762</v>
+        <v>6.035124549846477</v>
       </c>
       <c r="K14">
-        <v>10.03447968883079</v>
+        <v>12.73991033303067</v>
       </c>
       <c r="L14">
-        <v>12.51106657963794</v>
+        <v>8.581604784220236</v>
       </c>
       <c r="M14">
-        <v>16.00393544843061</v>
+        <v>12.28380954931965</v>
       </c>
       <c r="N14">
-        <v>20.46942948909456</v>
+        <v>12.55845419593355</v>
       </c>
       <c r="O14">
-        <v>26.0020434471848</v>
+        <v>16.3914679879365</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.50943240882963</v>
+        <v>16.15067806486502</v>
       </c>
       <c r="C15">
-        <v>8.852945513159755</v>
+        <v>6.696335907577559</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.41340005742521</v>
+        <v>9.980266553306748</v>
       </c>
       <c r="F15">
-        <v>39.44229376032327</v>
+        <v>29.06002942720883</v>
       </c>
       <c r="G15">
-        <v>3.665429900208982</v>
+        <v>2.093994313627101</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>26.17959720095266</v>
+        <v>15.91540425184608</v>
       </c>
       <c r="J15">
-        <v>8.467029413974862</v>
+        <v>6.029479070702311</v>
       </c>
       <c r="K15">
-        <v>10.01622510104998</v>
+        <v>12.67661974484532</v>
       </c>
       <c r="L15">
-        <v>12.5095464089041</v>
+        <v>8.560254384855433</v>
       </c>
       <c r="M15">
-        <v>15.99766222329599</v>
+        <v>12.24006512152576</v>
       </c>
       <c r="N15">
-        <v>20.47576573601574</v>
+        <v>12.58174029538217</v>
       </c>
       <c r="O15">
-        <v>26.00920508725009</v>
+        <v>16.39051185135947</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.3595309831129</v>
+        <v>15.62811146852184</v>
       </c>
       <c r="C16">
-        <v>8.842955222336316</v>
+        <v>6.65383860985107</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.41527663086921</v>
+        <v>9.88573732212247</v>
       </c>
       <c r="F16">
-        <v>39.43822121917125</v>
+        <v>28.67700562617383</v>
       </c>
       <c r="G16">
-        <v>3.666413866784889</v>
+        <v>2.096825959307497</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>26.22823402489318</v>
+        <v>15.97260712225778</v>
       </c>
       <c r="J16">
-        <v>8.458074328781565</v>
+        <v>5.997014457462893</v>
       </c>
       <c r="K16">
-        <v>9.911326866813106</v>
+        <v>12.30800297777336</v>
       </c>
       <c r="L16">
-        <v>12.50128613561492</v>
+        <v>8.437903950641227</v>
       </c>
       <c r="M16">
-        <v>15.96225747997507</v>
+        <v>11.98755933026612</v>
       </c>
       <c r="N16">
-        <v>20.51256375386275</v>
+        <v>12.71578172016189</v>
       </c>
       <c r="O16">
-        <v>26.05156285566357</v>
+        <v>16.38942046529571</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.26721992728198</v>
+        <v>15.29942445158957</v>
       </c>
       <c r="C17">
-        <v>8.836803720664212</v>
+        <v>6.627746163974964</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.41693070994402</v>
+        <v>9.828450449842974</v>
       </c>
       <c r="F17">
-        <v>39.43781164694933</v>
+        <v>28.44558246006234</v>
       </c>
       <c r="G17">
-        <v>3.667031079156156</v>
+        <v>2.098581478443549</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>26.25913223502824</v>
+        <v>16.0109652935454</v>
       </c>
       <c r="J17">
-        <v>8.452542503548516</v>
+        <v>5.977000125691409</v>
       </c>
       <c r="K17">
-        <v>9.846748303079625</v>
+        <v>12.07657675552094</v>
       </c>
       <c r="L17">
-        <v>12.49662311577221</v>
+        <v>8.362876033044882</v>
       </c>
       <c r="M17">
-        <v>15.94103006142876</v>
+        <v>11.83108879311165</v>
       </c>
       <c r="N17">
-        <v>20.5355740617276</v>
+        <v>12.79856482325831</v>
       </c>
       <c r="O17">
-        <v>26.07872291327914</v>
+        <v>16.39257491712978</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.21401419157128</v>
+        <v>15.10737786525395</v>
       </c>
       <c r="C18">
-        <v>8.833257328405473</v>
+        <v>6.612730018569625</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.4180672984233</v>
+        <v>9.795765594039779</v>
       </c>
       <c r="F18">
-        <v>39.43834478067338</v>
+        <v>28.31380177695784</v>
       </c>
       <c r="G18">
-        <v>3.667391085787498</v>
+        <v>2.099598125680469</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>26.27729401023025</v>
+        <v>16.03419510488127</v>
       </c>
       <c r="J18">
-        <v>8.449346816348816</v>
+        <v>5.965453141883954</v>
       </c>
       <c r="K18">
-        <v>9.809533336839426</v>
+        <v>11.94152020466982</v>
       </c>
       <c r="L18">
-        <v>12.49409036692504</v>
+        <v>8.319745242290619</v>
       </c>
       <c r="M18">
-        <v>15.92900397588796</v>
+        <v>11.74054102018771</v>
       </c>
       <c r="N18">
-        <v>20.54896952491568</v>
+        <v>12.84639018383244</v>
       </c>
       <c r="O18">
-        <v>26.0947762371737</v>
+        <v>16.39575851594071</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.19598236176557</v>
+        <v>15.04183853066956</v>
       </c>
       <c r="C19">
-        <v>8.832055185853628</v>
+        <v>6.607644318023811</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.41848397453173</v>
+        <v>9.78474519008191</v>
       </c>
       <c r="F19">
-        <v>39.43865741138006</v>
+        <v>28.26941336015867</v>
       </c>
       <c r="G19">
-        <v>3.667513838111108</v>
+        <v>2.09994354806297</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>26.28351024765969</v>
+        <v>16.04225771065092</v>
       </c>
       <c r="J19">
-        <v>8.448262428909207</v>
+        <v>5.961537557201631</v>
       </c>
       <c r="K19">
-        <v>9.796921961294135</v>
+        <v>11.89545800945818</v>
       </c>
       <c r="L19">
-        <v>12.49325852702969</v>
+        <v>8.305147082630997</v>
       </c>
       <c r="M19">
-        <v>15.92496387333034</v>
+        <v>11.70979117608543</v>
       </c>
       <c r="N19">
-        <v>20.5535326048087</v>
+        <v>12.86261991324799</v>
       </c>
       <c r="O19">
-        <v>26.10028572042313</v>
+        <v>16.39706819294696</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.27705848654483</v>
+        <v>15.33472334396278</v>
       </c>
       <c r="C20">
-        <v>8.83745941197267</v>
+        <v>6.630524615458356</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.41673547126247</v>
+        <v>9.83452144905257</v>
       </c>
       <c r="F20">
-        <v>39.43777571107533</v>
+        <v>28.47008095443129</v>
       </c>
       <c r="G20">
-        <v>3.666964858376667</v>
+        <v>2.098393887860798</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>26.25580271014821</v>
+        <v>16.00676046405763</v>
       </c>
       <c r="J20">
-        <v>8.453132819488033</v>
+        <v>5.979134355483277</v>
       </c>
       <c r="K20">
-        <v>9.853630438327347</v>
+        <v>12.10141388251607</v>
       </c>
       <c r="L20">
-        <v>12.49710406571852</v>
+        <v>8.370860753553851</v>
       </c>
       <c r="M20">
-        <v>15.9432708338649</v>
+        <v>11.84780287608895</v>
       </c>
       <c r="N20">
-        <v>20.533107967403</v>
+        <v>12.78973077900875</v>
       </c>
       <c r="O20">
-        <v>26.07578700738561</v>
+        <v>16.39209659889355</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.54801070728404</v>
+        <v>16.28309920305682</v>
       </c>
       <c r="C21">
-        <v>8.855517634854557</v>
+        <v>6.707301604866946</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.41307068815615</v>
+        <v>10.00488447934778</v>
       </c>
       <c r="F21">
-        <v>39.4439900273677</v>
+        <v>29.15999697739921</v>
       </c>
       <c r="G21">
-        <v>3.66518004864767</v>
+        <v>2.093268793777471</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>26.16736818354865</v>
+        <v>15.90167281570503</v>
       </c>
       <c r="J21">
-        <v>8.469329558180352</v>
+        <v>6.037829687277022</v>
       </c>
       <c r="K21">
-        <v>10.0432277298514</v>
+        <v>12.77015519815373</v>
       </c>
       <c r="L21">
-        <v>12.51180349905957</v>
+        <v>8.591842469233926</v>
       </c>
       <c r="M21">
-        <v>16.00695317357903</v>
+        <v>12.30475309921227</v>
       </c>
       <c r="N21">
-        <v>20.46639969870872</v>
+        <v>12.54729818457533</v>
       </c>
       <c r="O21">
-        <v>25.99863255541802</v>
+        <v>16.39200538933861</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.72372374881666</v>
+        <v>16.87655917664895</v>
       </c>
       <c r="C22">
-        <v>8.867243175070623</v>
+        <v>6.757416025693651</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.4123159449791</v>
+        <v>10.11845046146211</v>
       </c>
       <c r="F22">
-        <v>39.45487196281901</v>
+        <v>29.62222572415987</v>
       </c>
       <c r="G22">
-        <v>3.664057874110104</v>
+        <v>2.08997742897742</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>26.11304365848839</v>
+        <v>15.84410056593709</v>
       </c>
       <c r="J22">
-        <v>8.479788905218671</v>
+        <v>6.075858039341163</v>
       </c>
       <c r="K22">
-        <v>10.16624961003917</v>
+        <v>13.18993129947428</v>
       </c>
       <c r="L22">
-        <v>12.52272504449871</v>
+        <v>8.736220781210223</v>
       </c>
       <c r="M22">
-        <v>16.05015300787657</v>
+        <v>12.59797981210565</v>
       </c>
       <c r="N22">
-        <v>20.424224297054</v>
+        <v>12.39056890325015</v>
       </c>
       <c r="O22">
-        <v>25.95205516296095</v>
+        <v>16.40490791778463</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.63008579984555</v>
+        <v>16.5622151504377</v>
       </c>
       <c r="C23">
-        <v>8.860992205193114</v>
+        <v>6.730674167282927</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.41256911341194</v>
+        <v>10.05764125278943</v>
       </c>
       <c r="F23">
-        <v>39.44844133293829</v>
+        <v>29.37451273185953</v>
       </c>
       <c r="G23">
-        <v>3.664652757911139</v>
+        <v>2.091728940510412</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>26.14171993146451</v>
+        <v>15.87377589854433</v>
       </c>
       <c r="J23">
-        <v>8.474218202570903</v>
+        <v>6.055592887537902</v>
       </c>
       <c r="K23">
-        <v>10.10068423710429</v>
+        <v>12.96746720645875</v>
       </c>
       <c r="L23">
-        <v>12.51677646687907</v>
+        <v>8.659179309333947</v>
       </c>
       <c r="M23">
-        <v>16.02695452354159</v>
+        <v>12.44199786957502</v>
       </c>
       <c r="N23">
-        <v>20.44660431288719</v>
+        <v>12.47406950350463</v>
       </c>
       <c r="O23">
-        <v>25.97656214286222</v>
+        <v>16.39679807995976</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.27261088969356</v>
+        <v>15.3187743117464</v>
       </c>
       <c r="C24">
-        <v>8.837163004466902</v>
+        <v>6.629268525156472</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.41682316034603</v>
+        <v>9.831775969695885</v>
       </c>
       <c r="F24">
-        <v>39.4377895633061</v>
+        <v>28.45900123138274</v>
       </c>
       <c r="G24">
-        <v>3.666994780705998</v>
+        <v>2.098478674551795</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>26.25730674865558</v>
+        <v>16.00865780858639</v>
       </c>
       <c r="J24">
-        <v>8.452865985493311</v>
+        <v>5.978169596068137</v>
       </c>
       <c r="K24">
-        <v>9.850519295821996</v>
+        <v>12.09019126768467</v>
       </c>
       <c r="L24">
-        <v>12.49688616682657</v>
+        <v>8.367250846822598</v>
       </c>
       <c r="M24">
-        <v>15.94225722611145</v>
+        <v>11.84024827328201</v>
       </c>
       <c r="N24">
-        <v>20.53422236982654</v>
+        <v>12.79372392524071</v>
       </c>
       <c r="O24">
-        <v>26.07711296413425</v>
+        <v>16.39230858763125</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.88302464479912</v>
+        <v>13.86285951695422</v>
       </c>
       <c r="C25">
-        <v>8.811147320907047</v>
+        <v>6.51956080960859</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.42849689910988</v>
+        <v>9.598354129507216</v>
       </c>
       <c r="F25">
-        <v>39.45569615393439</v>
+        <v>27.52251697501961</v>
       </c>
       <c r="G25">
-        <v>3.669712436976762</v>
+        <v>2.106025698526038</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>26.39689429396489</v>
+        <v>16.1983991774287</v>
       </c>
       <c r="J25">
-        <v>8.429302823578499</v>
+        <v>5.893318703334635</v>
       </c>
       <c r="K25">
-        <v>9.578122889949082</v>
+        <v>11.06952254549436</v>
       </c>
       <c r="L25">
-        <v>12.48114653969677</v>
+        <v>8.053421028615187</v>
       </c>
       <c r="M25">
-        <v>15.85793588928405</v>
+        <v>11.17054472241805</v>
       </c>
       <c r="N25">
-        <v>20.63487517904245</v>
+        <v>13.14666411991142</v>
       </c>
       <c r="O25">
-        <v>26.20207055731147</v>
+        <v>16.43937182871514</v>
       </c>
     </row>
   </sheetData>
